--- a/docs/leadas_06/szk_2 (1).xlsx
+++ b/docs/leadas_06/szk_2 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Space-Miner\docs\leadas_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Space-Miner\docs\leadas_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92BAAA0-5FBC-498C-A452-3F8CA6D7CEE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B4FD5B-F605-4364-9CB3-425B4926F1C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -111,25 +111,25 @@
     <t>fantastic5</t>
   </si>
   <si>
-    <t>Settler craft robot</t>
-  </si>
-  <si>
     <t>Szekvencia: 5.3.15,  Kommunikációs: 5.4.15</t>
   </si>
   <si>
-    <t>A telepes tud-e építeni robotot.</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>A csapat jelezte hogy a hibák javításra kerültek egy másik dokumentációban de ezt mi nem kaptuk kézhez. Jelezve a lett a laborvezető felé.</t>
-  </si>
-  <si>
-    <t>A kezedőfelületen 15 szám beütésével és enter lenyomásával indítható a Settler craft robot menüpont alatt.</t>
-  </si>
-  <si>
     <t>A többlet hívások a szekvenciákhoz képest:checkWinCondition(), listOres(),getSize() getCount(), setCurrentLocation(), add(), addStrorage(), craftRobot(), allStorage(), get(), add().  A többlet hívások a kommunikációshoz képest: checkWinCondition(), setCurrentLocaton(),  listOres(), getSize(), getCount(), add(), addStrorage(). Az inicializálás soron accept() Settler paramétert kap míg a kommunikációs diagrammon egy Robot paramétert.</t>
+  </si>
+  <si>
+    <t>A kezedőfelületen 15 szám beütésével és enter lenyomásával indítható a Settler craft robot.</t>
+  </si>
+  <si>
+    <t>Settler crafts robot</t>
+  </si>
+  <si>
+    <t>Tud-e a telepes  robotot építeni?</t>
+  </si>
+  <si>
+    <t>A csapat jelezte hogy a hibák javításra kerültek egy másik dokumentációban de ezt mi nem kaptuk kézhez. Ez jelezve lett a laborvezető felé.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D35"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="5"/>
@@ -1347,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="5"/>
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="5"/>
@@ -1382,7 +1382,7 @@
     <row r="22" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -1497,7 +1497,7 @@
     <row r="35" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E40" s="5"/>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E42" s="5"/>
     </row>
@@ -1603,7 +1603,7 @@
     <row r="47" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
